--- a/python/example.xlsx
+++ b/python/example.xlsx
@@ -7,7 +7,8 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="WorkSheetTitle" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="WorkSheelTitle" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Example" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -340,12 +341,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,52 +357,32 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>FirstName</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>LastName</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Tarou</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Tanaka</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Tarou</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Suzuki</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Tarou</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Uchiayama</t>
+          <t>Link</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>